--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/企业单位数.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/企业单位数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2622</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2747</v>
-      </c>
-      <c r="D2" t="n">
-        <v>710</v>
-      </c>
-      <c r="E2" t="n">
-        <v>8</v>
-      </c>
-      <c r="F2" t="n">
-        <v>462</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3692</v>
-      </c>
-      <c r="H2" t="n">
-        <v>233</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1496</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2148</v>
-      </c>
-      <c r="K2" t="n">
-        <v>53489</v>
-      </c>
-      <c r="L2" t="n">
-        <v>967</v>
-      </c>
-      <c r="M2" t="n">
-        <v>239</v>
-      </c>
-      <c r="N2" t="n">
-        <v>268</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2761</v>
-      </c>
-      <c r="P2" t="n">
-        <v>608</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>662</v>
-      </c>
-      <c r="R2" t="n">
-        <v>638</v>
-      </c>
-      <c r="S2" t="n">
-        <v>638</v>
-      </c>
-      <c r="T2" t="n">
-        <v>486</v>
-      </c>
-      <c r="U2" t="n">
-        <v>374</v>
-      </c>
-      <c r="V2" t="n">
-        <v>299</v>
-      </c>
-      <c r="W2" t="n">
-        <v>252</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1321</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>4128</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1330</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1684</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>331</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>281</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>2631</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2231</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1028</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1426</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>4279</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>621</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>2071</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>5082</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1663</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>702</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2239</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2478</v>
-      </c>
-      <c r="D3" t="n">
-        <v>675</v>
-      </c>
-      <c r="E3" t="n">
-        <v>4</v>
-      </c>
-      <c r="F3" t="n">
-        <v>355</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3261</v>
-      </c>
-      <c r="H3" t="n">
-        <v>203</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1341</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1890</v>
-      </c>
-      <c r="K3" t="n">
-        <v>46767</v>
-      </c>
-      <c r="L3" t="n">
-        <v>821</v>
-      </c>
-      <c r="M3" t="n">
-        <v>204</v>
-      </c>
-      <c r="N3" t="n">
-        <v>213</v>
-      </c>
-      <c r="O3" t="n">
-        <v>2475</v>
-      </c>
-      <c r="P3" t="n">
-        <v>614</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>517</v>
-      </c>
-      <c r="R3" t="n">
-        <v>546</v>
-      </c>
-      <c r="S3" t="n">
-        <v>502</v>
-      </c>
-      <c r="T3" t="n">
-        <v>419</v>
-      </c>
-      <c r="U3" t="n">
-        <v>341</v>
-      </c>
-      <c r="V3" t="n">
-        <v>276</v>
-      </c>
-      <c r="W3" t="n">
-        <v>252</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1204</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>4116</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1182</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1474</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>267</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>279</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>70</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>2157</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>2205</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>846</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1239</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>3635</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>548</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1624</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>4016</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1376</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>622</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1938</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2299</v>
-      </c>
-      <c r="D4" t="n">
-        <v>609</v>
-      </c>
-      <c r="E4" t="n">
-        <v>4</v>
-      </c>
-      <c r="F4" t="n">
-        <v>293</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2810</v>
-      </c>
-      <c r="H4" t="n">
-        <v>175</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1180</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1666</v>
-      </c>
-      <c r="K4" t="n">
-        <v>41125</v>
-      </c>
-      <c r="L4" t="n">
-        <v>718</v>
-      </c>
-      <c r="M4" t="n">
-        <v>165</v>
-      </c>
-      <c r="N4" t="n">
-        <v>186</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2180</v>
-      </c>
-      <c r="P4" t="n">
-        <v>555</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>473</v>
-      </c>
-      <c r="R4" t="n">
-        <v>452</v>
-      </c>
-      <c r="S4" t="n">
-        <v>427</v>
-      </c>
-      <c r="T4" t="n">
-        <v>376</v>
-      </c>
-      <c r="U4" t="n">
-        <v>286</v>
-      </c>
-      <c r="V4" t="n">
-        <v>243</v>
-      </c>
-      <c r="W4" t="n">
-        <v>243</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1135</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>4058</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>1061</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1285</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>202</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>260</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>68</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1812</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2205</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>708</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1034</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>3145</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>471</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>1298</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>3149</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1146</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>550</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>149</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
